--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>3.849892118306666</v>
+        <v>1.101876797499333</v>
       </c>
       <c r="R2">
-        <v>34.64902906476</v>
+        <v>9.916891177494001</v>
       </c>
       <c r="S2">
-        <v>0.03293015583774903</v>
+        <v>0.02199711328575256</v>
       </c>
       <c r="T2">
-        <v>0.03690885457490427</v>
+        <v>0.02379151265116764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.46076737626</v>
+        <v>0.310903709508</v>
       </c>
       <c r="R3">
-        <v>4.14690638634</v>
+        <v>2.798133385572</v>
       </c>
       <c r="S3">
-        <v>0.003941186152474914</v>
+        <v>0.006206668599002166</v>
       </c>
       <c r="T3">
-        <v>0.004417369515985456</v>
+        <v>0.006712973315021644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.406195812445</v>
+        <v>0.20246423064</v>
       </c>
       <c r="R4">
-        <v>2.43717487467</v>
+        <v>1.21478538384</v>
       </c>
       <c r="S4">
-        <v>0.003474406812816942</v>
+        <v>0.004041857154818172</v>
       </c>
       <c r="T4">
-        <v>0.002596128533780277</v>
+        <v>0.002914379245551663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.86561333333333</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>35.59684</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.6833003453286127</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.7438741281663874</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>65.2022255618311</v>
+        <v>0.02558946551933334</v>
       </c>
       <c r="R5">
-        <v>586.8200300564799</v>
+        <v>0.230305189674</v>
       </c>
       <c r="S5">
-        <v>0.5577089909894798</v>
+        <v>0.0005108505535538104</v>
       </c>
       <c r="T5">
-        <v>0.6250927005924054</v>
+        <v>0.0005525228356033203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J6">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>7.803610458480001</v>
+        <v>27.65685013707111</v>
       </c>
       <c r="R6">
-        <v>70.23249412632001</v>
+        <v>248.91165123364</v>
       </c>
       <c r="S6">
-        <v>0.06674839205828498</v>
+        <v>0.5521224033148792</v>
       </c>
       <c r="T6">
-        <v>0.07481308948935533</v>
+        <v>0.5971614080819894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>6.879380037526666</v>
+        <v>7.803610458480001</v>
       </c>
       <c r="R7">
-        <v>41.27628022516</v>
+        <v>70.23249412632001</v>
       </c>
       <c r="S7">
-        <v>0.05884296228084794</v>
+        <v>0.1557859314967306</v>
       </c>
       <c r="T7">
-        <v>0.04396833808462679</v>
+        <v>0.1684940615584778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H8">
+        <v>35.59684</v>
+      </c>
+      <c r="I8">
+        <v>0.822180234441485</v>
+      </c>
+      <c r="J8">
+        <v>0.8526739017519405</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4571846666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.371554</v>
-      </c>
-      <c r="I8">
-        <v>0.02632771116303695</v>
-      </c>
-      <c r="J8">
-        <v>0.02866163221182333</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>2.512255955254222</v>
+        <v>5.0818048784</v>
       </c>
       <c r="R8">
-        <v>22.610303597288</v>
+        <v>30.4908292704</v>
       </c>
       <c r="S8">
-        <v>0.02148864892017339</v>
+        <v>0.1014496701082613</v>
       </c>
       <c r="T8">
-        <v>0.02408495793076902</v>
+        <v>0.073150238048153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4571846666666666</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H9">
-        <v>1.371554</v>
+        <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.02632771116303695</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.02866163221182333</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>0.300674810988</v>
+        <v>0.6422896049377779</v>
       </c>
       <c r="R9">
-        <v>2.706073298892</v>
+        <v>5.78060644444</v>
       </c>
       <c r="S9">
-        <v>0.002571830087196194</v>
+        <v>0.0128222295216141</v>
       </c>
       <c r="T9">
-        <v>0.002882564636116106</v>
+        <v>0.01386819406332027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,51 +1036,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H10">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I10">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J10">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5797745</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N10">
-        <v>1.159549</v>
+        <v>6.992521</v>
       </c>
       <c r="O10">
-        <v>0.08611580937010824</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P10">
-        <v>0.0591072285213179</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q10">
-        <v>0.2650640115243333</v>
+        <v>0.8832020191066665</v>
       </c>
       <c r="R10">
-        <v>1.590384069146</v>
+        <v>7.94881817196</v>
       </c>
       <c r="S10">
-        <v>0.00226723215566736</v>
+        <v>0.01763163986444364</v>
       </c>
       <c r="T10">
-        <v>0.001694109644938208</v>
+        <v>0.0190699287423064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H11">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I11">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J11">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.495057333333333</v>
+        <v>0.657666</v>
       </c>
       <c r="N11">
-        <v>16.485172</v>
+        <v>1.972998</v>
       </c>
       <c r="O11">
-        <v>0.8161989011161211</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P11">
-        <v>0.8403205285996808</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q11">
-        <v>23.31080526355533</v>
+        <v>0.24920280072</v>
       </c>
       <c r="R11">
-        <v>139.864831581332</v>
+        <v>2.24282520648</v>
       </c>
       <c r="S11">
-        <v>0.1993896001350632</v>
+        <v>0.004974913938659258</v>
       </c>
       <c r="T11">
-        <v>0.1489868798150294</v>
+        <v>0.005380739116652355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657666</v>
+        <v>0.42828</v>
       </c>
       <c r="N12">
-        <v>1.972998</v>
+        <v>0.85656</v>
       </c>
       <c r="O12">
-        <v>0.09768528951377062</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P12">
-        <v>0.1005722428790014</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q12">
-        <v>2.789911574073</v>
+        <v>0.1622838576</v>
       </c>
       <c r="R12">
-        <v>16.739469444438</v>
+        <v>0.9737031455999999</v>
       </c>
       <c r="S12">
-        <v>0.02386358372768446</v>
+        <v>0.003239723722450282</v>
       </c>
       <c r="T12">
-        <v>0.01783122529151006</v>
+        <v>0.002336001302464444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5797745</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N13">
-        <v>1.159549</v>
+        <v>0.162391</v>
       </c>
       <c r="O13">
-        <v>0.08611580937010824</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P13">
-        <v>0.0591072285213179</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q13">
-        <v>2.45948488731725</v>
+        <v>0.02051106590666667</v>
       </c>
       <c r="R13">
-        <v>9.837939549268999</v>
+        <v>0.18459959316</v>
       </c>
       <c r="S13">
-        <v>0.02103727017046098</v>
+        <v>0.0004094688638370721</v>
       </c>
       <c r="T13">
-        <v>0.01047957446259206</v>
+        <v>0.0004428710043762298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H14">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I14">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J14">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N14">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O14">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P14">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q14">
-        <v>0.5473187005146667</v>
+        <v>3.608972945999</v>
       </c>
       <c r="R14">
-        <v>4.925868304632</v>
+        <v>21.653837675994</v>
       </c>
       <c r="S14">
-        <v>0.004681505233655642</v>
+        <v>0.07204706271928209</v>
       </c>
       <c r="T14">
-        <v>0.00524713568657258</v>
+        <v>0.05194950149134614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H15">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I15">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J15">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>1.972998</v>
       </c>
       <c r="O15">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P15">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q15">
-        <v>0.06550484893200001</v>
+        <v>1.018301754762</v>
       </c>
       <c r="R15">
-        <v>0.589543640388</v>
+        <v>6.109810528572001</v>
       </c>
       <c r="S15">
-        <v>0.0005602974881300671</v>
+        <v>0.02032867840525872</v>
       </c>
       <c r="T15">
-        <v>0.000627993946034432</v>
+        <v>0.01465798422963949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H16">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I16">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J16">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N16">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O16">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P16">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q16">
-        <v>0.057746699749</v>
+        <v>0.66313033596</v>
       </c>
       <c r="R16">
-        <v>0.346480198494</v>
+        <v>2.65252134384</v>
       </c>
       <c r="S16">
-        <v>0.0004939379503150013</v>
+        <v>0.0132382795939036</v>
       </c>
       <c r="T16">
-        <v>0.0003690777953805729</v>
+        <v>0.006363636948309123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.548357</v>
+      </c>
+      <c r="H17">
+        <v>3.096714</v>
+      </c>
+      <c r="I17">
+        <v>0.1072872076222874</v>
+      </c>
+      <c r="J17">
+        <v>0.0741775733180209</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P17">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q17">
+        <v>0.08381308052900001</v>
+      </c>
+      <c r="R17">
+        <v>0.5028784831740001</v>
+      </c>
+      <c r="S17">
+        <v>0.001673186903842968</v>
+      </c>
+      <c r="T17">
+        <v>0.001206450648726145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.16626</v>
+      </c>
+      <c r="H18">
+        <v>0.49878</v>
+      </c>
+      <c r="I18">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J18">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.992521</v>
+      </c>
+      <c r="O18">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P18">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q18">
+        <v>0.3875255138199999</v>
+      </c>
+      <c r="R18">
+        <v>3.48772962438</v>
+      </c>
+      <c r="S18">
+        <v>0.007736293792521904</v>
+      </c>
+      <c r="T18">
+        <v>0.00836737663014848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.16626</v>
+      </c>
+      <c r="H19">
+        <v>0.49878</v>
+      </c>
+      <c r="I19">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J19">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.657666</v>
+      </c>
+      <c r="N19">
+        <v>1.972998</v>
+      </c>
+      <c r="O19">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P19">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q19">
+        <v>0.10934354916</v>
+      </c>
+      <c r="R19">
+        <v>0.98409194244</v>
+      </c>
+      <c r="S19">
+        <v>0.002182859683947768</v>
+      </c>
+      <c r="T19">
+        <v>0.002360924959185634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.16626</v>
+      </c>
+      <c r="H20">
+        <v>0.49878</v>
+      </c>
+      <c r="I20">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J20">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.42828</v>
+      </c>
+      <c r="N20">
+        <v>0.85656</v>
+      </c>
+      <c r="O20">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P20">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q20">
+        <v>0.07120583279999999</v>
+      </c>
+      <c r="R20">
+        <v>0.4272349968</v>
+      </c>
+      <c r="S20">
+        <v>0.001421504449737633</v>
+      </c>
+      <c r="T20">
+        <v>0.00102497513076042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.16626</v>
+      </c>
+      <c r="H21">
+        <v>0.49878</v>
+      </c>
+      <c r="I21">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J21">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.162391</v>
+      </c>
+      <c r="O21">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P21">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q21">
+        <v>0.008999709220000001</v>
+      </c>
+      <c r="R21">
+        <v>0.08099738298</v>
+      </c>
+      <c r="S21">
+        <v>0.0001796640275033031</v>
+      </c>
+      <c r="T21">
+        <v>0.0001943199968003588</v>
       </c>
     </row>
   </sheetData>
